--- a/similarities/split_global/harmonic_similarity_timestamps_132.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_132.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,698 +484,746 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>isophonics_156</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:55.230000', '0:01:07.670000')]</t>
+          <t>('0:00:41.080000', '0:00:43.260000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:06.100000', '0:01:20.980000')]</t>
+          <t>('0:00:00.421247', '0:00:05.746892')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=55.23']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=41.08</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=66.1']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=0.421247</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_241</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
+          <t>schubert-winterreise_37</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'A:7']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'F#:7']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:48.586000', '0:01:54.554000')]</t>
+          <t>('0:01:21.280000', '0:01:29.420000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:16.504148', '0:00:22.622607')]</t>
+          <t>('0:00:45.580000', '0:00:49.600000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=108.586']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=81.28</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-92#t=16.504148']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=45.58</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>schubert-winterreise_16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj/F', 'F:min'], ['F:min', 'C:7/F', 'F:min']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:05.840000', '0:00:12.720000'), ('0:00:14.920000', '0:00:20.760000')]</t>
+          <t>('0:00:44', '0:01:01.060000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:11.700000', '0:00:20.020000'), ('0:01:14.500000', '0:01:20.420000')]</t>
+          <t>('0:01:12.820000', '0:01:24.380000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=5.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=14.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=44.0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=11.7', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=74.5']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=72.82</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>isophonics_294</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C#:maj', 'G#:maj', 'C#:maj']]</t>
+          <t>['G', 'C', 'G/3']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:07.100430', '0:01:15.018435')]</t>
+          <t>('0:02:04.920000', '0:02:08.840000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:09.060000', '0:00:10.780000')]</t>
+          <t>('0:00:22.020589', '0:00:24.598004')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=67.10043']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=9.06']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=22.020589</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>schubert-winterreise_29</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['A#:min', 'F:maj/A', 'A#:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:19.140000', '0:00:28.440000')]</t>
+          <t>('0:00:11.440000', '0:00:16.380000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:07.760000', '0:01:24.780000')]</t>
+          <t>('0:00:00.240000', '0:00:05.080000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=11.44</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=67.76']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=0.24</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>schubert-winterreise_146</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
+          <t>isophonics_42</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G/3', 'C', 'G/3', 'C']]</t>
+          <t>['D:maj/A', 'E:min/G', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
+          <t>['Eb', 'F:min', 'Eb/3']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:02:10.528000', '0:02:12.075000')]</t>
+          <t>('0:00:36.020000', '0:00:40.440000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:56.454081', '0:01:01.864331')]</t>
+          <t>('0:00:01.490000', '0:00:04.314000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=130.528']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=36.02</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=56.454081']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-42#t=1.49</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>schubert-winterreise_31</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A'], ['E:7/G#', 'A:7/G', 'D:maj/F#']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/7'], ['D:7', 'G:7', 'C']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:03:49.440000', '0:03:58.320000'), ('0:00:54.820000', '0:01:01.800000')]</t>
+          <t>('0:00:32.400000', '0:00:44.110000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:12.851927', '0:00:16.810929'), ('0:00:18.783807', '0:00:24.845034')]</t>
+          <t>('0:00:30.020000', '0:00:44.280000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=229.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=54.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=32.4</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-35#t=12.851927', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-35#t=18.783807']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=30.02</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>isophonics_108</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:15.260000', '0:00:37.400000')]</t>
+          <t>('0:00:01.829138', '0:00:15.586961')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:22.070000', '0:01:30.900000')]</t>
+          <t>('0:00:18.320000', '0:00:25.820000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=15.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=1.829138</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=82.07']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_123</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'C:7', 'F']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E']]</t>
+          <t>['F:min', 'C:maj/F', 'F:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:36.970000', '0:00:42.100000')]</t>
+          <t>('0:01:25.580000', '0:01:34.240000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:06.260000', '0:01:12.240000')]</t>
+          <t>('0:00:05.840000', '0:00:12.720000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=36.97']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=85.58</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=66.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=5.84</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>jaah_85</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
+          <t>['A#:7', 'D#:maj', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:03:49.260000', '0:04:01.060000')]</t>
+          <t>('0:01:22.070000', '0:01:30.900000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:04:10.300000', '0:04:17.660000')]</t>
+          <t>('0:01:01.760000', '0:01:09.340000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=229.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=82.07</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=250.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=61.76</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>jaah_77</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['C', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db/5', 'Ab']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:02.480000', '0:01:04.920000')]</t>
+          <t>('0:00:21.170000', '0:00:25.690000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:00.243000', '0:00:09.120000')]</t>
+          <t>('0:01:03.240000', '0:01:04.620000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=21.17</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=63.24</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_5</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>schubert-winterreise_3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['C#:maj', 'G#:7', 'C#:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:09.162102', '0:00:14.073123')]</t>
+          <t>('0:04:14.260000', '0:04:20.200000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:34.410000', '0:00:39.540000')]</t>
+          <t>('0:00:00.480000', '0:00:08.480000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-5#t=9.162102']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=254.26</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=0.48</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>isophonics_162</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['G', 'D', 'G', 'D', 'G']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['D/5', 'A', 'D', 'A', 'D']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:00.380000', '0:00:08.900000')]</t>
+          <t>('0:00:23.647000', '0:00:28.197000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:24.280000', '0:00:44.360000')]</t>
+          <t>('0:00:27.963197', '0:00:42.011269')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=0.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=23.647</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=24.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=27.963197</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>isophonics_231</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
+          <t>schubert-winterreise_161</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['G:maj', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:51.920000', '0:01:55.660000')]</t>
+          <t>('0:00:18.013446', '0:00:21.856349')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
+          <t>('0:00:12.540000', '0:00:14.560000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-231#t=18.013446</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=12.54</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E', 'B', 'E']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:09.060000', '0:00:11.980000')]</t>
+          <t>('0:01:04.080000', '0:01:13.880000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:29.257527', '0:01:50.178707')]</t>
+          <t>('0:01:16.560000', '0:01:27.040000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=9.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=64.08</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=89.257527']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=76.56</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
